--- a/D214/Part 2/Pokemon Pull Rates.xlsx
+++ b/D214/Part 2/Pokemon Pull Rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin .LAPTOP-VCUUDDEB\Documents\GitHub\WGU\D214\Part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEB9803-96AE-4811-BDB6-7C6EE67106AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00146AF6-6248-4D47-B71F-7F613419138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73C7882C-27F6-4DF0-82A8-CAB062DF25D4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{73C7882C-27F6-4DF0-82A8-CAB062DF25D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1971,7 +1971,7 @@
   <dimension ref="A1:P1107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
